--- a/Demo_cs_Cart/Demo_cs_Cart/TestDataAccess/DataTable.xlsx
+++ b/Demo_cs_Cart/Demo_cs_Cart/TestDataAccess/DataTable.xlsx
@@ -16,19 +16,19 @@
     <sheet name="Data" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="Z_110BAE68_545F_421C_B420_E5FB5CC552B6_.wvu.Cols" localSheetId="0" hidden="1">DEMO_STORE_PANEL!$B:$B</definedName>
-    <definedName name="Z_2E134EFA_E427_4C6F_8786_E068AEE55273_.wvu.Cols" localSheetId="0" hidden="1">DEMO_STORE_PANEL!$B:$B</definedName>
+    <definedName name="Z_110BAE68_545F_421C_B420_E5FB5CC552B6_.wvu.Cols" localSheetId="0" hidden="1">DEMO_STORE_PANEL!$C:$C</definedName>
+    <definedName name="Z_2E134EFA_E427_4C6F_8786_E068AEE55273_.wvu.Cols" localSheetId="0" hidden="1">DEMO_STORE_PANEL!$C:$C</definedName>
   </definedNames>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <customWorkbookViews>
+    <customWorkbookView name="Roberto Firmino de Toledo Filho - Modo de exibição pessoal" guid="{2E134EFA-E427-4C6F-8786-E068AEE55273}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="693" activeSheetId="4"/>
     <customWorkbookView name="Andre Fernando Mendes Berte - Modo de exibição pessoal" guid="{110BAE68-545F-421C-B420-E5FB5CC552B6}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" activeSheetId="7"/>
-    <customWorkbookView name="Roberto Firmino de Toledo Filho - Modo de exibição pessoal" guid="{2E134EFA-E427-4C6F-8786-E068AEE55273}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1296" windowHeight="1000" tabRatio="693" activeSheetId="4"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>URL</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>CT</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Firefox</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -517,58 +529,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMA2"/>
+  <dimension ref="A1:AMB2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.140625" style="1"/>
-    <col min="2" max="2" width="25.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1"/>
-    <col min="4" max="4" width="33.28515625" style="1"/>
-    <col min="5" max="1015" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1"/>
+    <col min="5" max="5" width="33.28515625" style="1"/>
+    <col min="6" max="1016" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="str">
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="8" t="str">
         <f>Data!$B$1</f>
         <v>http://demo.cs-cart.com/</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{110BAE68-545F-421C-B420-E5FB5CC552B6}" hiddenColumns="1">
+    <customSheetView guid="{2E134EFA-E427-4C6F-8786-E068AEE55273}" hiddenColumns="1" topLeftCell="E1">
       <selection activeCell="L3" sqref="L3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
       <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
     </customSheetView>
-    <customSheetView guid="{2E134EFA-E427-4C6F-8786-E068AEE55273}" hiddenColumns="1" topLeftCell="E1">
+    <customSheetView guid="{110BAE68-545F-421C-B420-E5FB5CC552B6}" hiddenColumns="1">
       <selection activeCell="L3" sqref="L3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
       <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -576,15 +595,27 @@
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Data!$A$4:$A$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,16 +642,34 @@
       <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
       <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{110BAE68-545F-421C-B420-E5FB5CC552B6}">
+    <customSheetView guid="{2E134EFA-E427-4C6F-8786-E068AEE55273}">
       <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
       <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
     </customSheetView>
-    <customSheetView guid="{2E134EFA-E427-4C6F-8786-E068AEE55273}">
+    <customSheetView guid="{110BAE68-545F-421C-B420-E5FB5CC552B6}">
       <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
       <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Demo_cs_Cart/Demo_cs_Cart/TestDataAccess/DataTable.xlsx
+++ b/Demo_cs_Cart/Demo_cs_Cart/TestDataAccess/DataTable.xlsx
@@ -567,7 +567,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="8" t="str">
         <f>Data!$B$1</f>
